--- a/Resources/ML_Accuracy_Table.xlsx
+++ b/Resources/ML_Accuracy_Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/derekdenning/Desktop/GW_Class/Project_3_Conda_Activate/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A8C7D4C-800E-4C43-BBF9-26360703741B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB81933C-12F2-5A4F-83F4-A9A7A102B81E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="960" windowWidth="26780" windowHeight="16540" xr2:uid="{2B06B0C3-47BA-7743-AEFB-13E7FFE2F2B0}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t>Country</t>
   </si>
@@ -274,6 +274,12 @@
   </si>
   <si>
     <t>Data Count (Line 40)</t>
+  </si>
+  <si>
+    <t>60 epochs</t>
+  </si>
+  <si>
+    <t>200 epochs</t>
   </si>
 </sst>
 </file>
@@ -323,7 +329,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -333,6 +339,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -648,21 +657,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{406186E0-735E-7D4A-87DB-707EFD939807}">
-  <dimension ref="A1:D78"/>
+  <dimension ref="A1:E78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="29.5" customWidth="1"/>
-    <col min="2" max="2" width="29.1640625" customWidth="1"/>
-    <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="24.5" customWidth="1"/>
+    <col min="2" max="2" width="29.1640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="22" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.5" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19">
+    <row r="1" spans="1:5" ht="19">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -676,279 +685,357 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>30</v>
+      </c>
+      <c r="B2" s="4">
+        <v>697</v>
+      </c>
+      <c r="C2" s="4">
+        <v>99.2</v>
+      </c>
+      <c r="D2" s="4">
+        <v>85.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>22</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1260</v>
+      </c>
+      <c r="C4" s="4">
+        <v>99.9</v>
+      </c>
+      <c r="D4" s="4">
+        <v>91.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>29</v>
+      </c>
+      <c r="B6" s="4">
+        <v>734</v>
+      </c>
+      <c r="C6" s="4">
+        <v>98.9</v>
+      </c>
+      <c r="D6" s="4">
+        <v>88.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>50</v>
+      </c>
+      <c r="B7" s="4">
+        <v>335</v>
+      </c>
+      <c r="C7" s="4">
+        <v>99.2</v>
+      </c>
+      <c r="D7" s="4">
+        <v>95.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="B10" s="4">
+        <v>2272</v>
+      </c>
+      <c r="C10" s="4">
+        <v>98.3</v>
+      </c>
+      <c r="D10" s="4">
+        <v>91.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>6</v>
+      </c>
+      <c r="B12" s="4">
+        <v>7904</v>
+      </c>
+      <c r="C12" s="4">
+        <v>98</v>
+      </c>
+      <c r="D12" s="4">
+        <v>91</v>
+      </c>
+      <c r="E12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>53</v>
+      </c>
+      <c r="B13" s="4">
+        <v>293</v>
+      </c>
+      <c r="C13" s="4">
+        <v>100</v>
+      </c>
+      <c r="D13" s="4">
+        <v>86.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>4</v>
+      </c>
+      <c r="B14" s="4">
+        <v>19734</v>
+      </c>
+      <c r="C14" s="4">
+        <v>96.6</v>
+      </c>
+      <c r="D14" s="4">
+        <v>95.6</v>
+      </c>
+      <c r="E14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="2" t="s">
-        <v>40</v>
+      <c r="A39" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" s="1" t="s">
-        <v>55</v>
+      <c r="A54" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" spans="1:1">
@@ -958,110 +1045,113 @@
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D78">
+    <sortCondition ref="A1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Resources/ML_Accuracy_Table.xlsx
+++ b/Resources/ML_Accuracy_Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/derekdenning/Desktop/GW_Class/Project_3_Conda_Activate/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB81933C-12F2-5A4F-83F4-A9A7A102B81E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12BE7685-4D2F-0C49-BBC4-680B2593E96C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="26780" windowHeight="16540" xr2:uid="{2B06B0C3-47BA-7743-AEFB-13E7FFE2F2B0}"/>
+    <workbookView xWindow="720" yWindow="960" windowWidth="26780" windowHeight="16540" xr2:uid="{2B06B0C3-47BA-7743-AEFB-13E7FFE2F2B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>Country</t>
   </si>
@@ -280,6 +280,9 @@
   </si>
   <si>
     <t>200 epochs</t>
+  </si>
+  <si>
+    <t>10 epochs</t>
   </si>
 </sst>
 </file>
@@ -659,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{406186E0-735E-7D4A-87DB-707EFD939807}">
   <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -832,168 +835,360 @@
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="B15" s="4">
+        <v>943</v>
+      </c>
+      <c r="C15" s="4">
+        <v>98.7</v>
+      </c>
+      <c r="D15" s="4">
+        <v>84.7</v>
+      </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19" s="4">
+        <v>156</v>
+      </c>
+      <c r="C19" s="4">
+        <v>100</v>
+      </c>
+      <c r="D19" s="4">
+        <v>87.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20" s="4">
+        <v>332</v>
+      </c>
+      <c r="C20" s="4">
+        <v>92.8</v>
+      </c>
+      <c r="D20" s="4">
+        <v>74.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21" s="4">
+        <v>528</v>
+      </c>
+      <c r="C21" s="4">
+        <v>100</v>
+      </c>
+      <c r="D21" s="4">
+        <v>93.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22" s="4">
+        <v>279</v>
+      </c>
+      <c r="C22" s="4">
+        <v>98.1</v>
+      </c>
+      <c r="D22" s="4">
+        <v>72.900000000000006</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24" s="4">
+        <v>1913</v>
+      </c>
+      <c r="C24" s="4">
+        <v>99.5</v>
+      </c>
+      <c r="D24" s="4">
+        <v>89.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
+      <c r="B25" s="4">
+        <v>1278</v>
+      </c>
+      <c r="C25" s="4">
+        <v>99.7</v>
+      </c>
+      <c r="D25" s="4">
+        <v>92.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="B26" s="4">
+        <v>194</v>
+      </c>
+      <c r="C26" s="4">
+        <v>100</v>
+      </c>
+      <c r="D26" s="4">
+        <v>91.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
+      <c r="B27" s="4">
+        <v>336</v>
+      </c>
+      <c r="C27" s="4">
+        <v>99.6</v>
+      </c>
+      <c r="D27" s="4">
+        <v>90.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
+      <c r="B28" s="4">
+        <v>154</v>
+      </c>
+      <c r="C28" s="4">
+        <v>94.8</v>
+      </c>
+      <c r="D28" s="4">
+        <v>66.7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
+      <c r="B29" s="4">
+        <v>37</v>
+      </c>
+      <c r="C29" s="4">
+        <v>100</v>
+      </c>
+      <c r="D29" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
+      <c r="B30" s="4">
+        <v>165</v>
+      </c>
+      <c r="C30" s="4">
+        <v>99.2</v>
+      </c>
+      <c r="D30" s="4">
+        <v>78.599999999999994</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
+      <c r="B31" s="4">
+        <v>283</v>
+      </c>
+      <c r="C31" s="4">
+        <v>100</v>
+      </c>
+      <c r="D31" s="4">
+        <v>88.7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="B33" s="4">
+        <v>120577</v>
+      </c>
+      <c r="C33" s="4">
+        <v>95.6</v>
+      </c>
+      <c r="D33" s="4">
+        <v>95.6</v>
+      </c>
+      <c r="E33" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
+      <c r="B34" s="4">
+        <v>394</v>
+      </c>
+      <c r="C34" s="4">
+        <v>99.7</v>
+      </c>
+      <c r="D34" s="4">
+        <v>81.8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
+      <c r="B35" s="4">
+        <v>1163</v>
+      </c>
+      <c r="C35" s="4">
+        <v>98.5</v>
+      </c>
+      <c r="D35" s="4">
+        <v>89.3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
+      <c r="B36" s="4">
+        <v>610</v>
+      </c>
+      <c r="C36" s="4">
+        <v>99.8</v>
+      </c>
+      <c r="D36" s="4">
+        <v>93.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
+      <c r="B37" s="4">
+        <v>1059</v>
+      </c>
+      <c r="C37" s="4">
+        <v>99.5</v>
+      </c>
+      <c r="D37" s="4">
+        <v>92.8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
+      <c r="B38" s="4">
+        <v>1124</v>
+      </c>
+      <c r="C38" s="4">
+        <v>99.8</v>
+      </c>
+      <c r="D38" s="4">
+        <v>86.1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
+      <c r="B39" s="4">
+        <v>237</v>
+      </c>
+      <c r="C39" s="4">
+        <v>97.7</v>
+      </c>
+      <c r="D39" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
+      <c r="B40" s="4">
+        <v>1529</v>
+      </c>
+      <c r="C40" s="4">
+        <v>98.4</v>
+      </c>
+      <c r="D40" s="4">
+        <v>87.2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:5">
       <c r="A45" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:5">
       <c r="A46" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:5">
       <c r="A47" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:5">
       <c r="A48" s="1" t="s">
         <v>77</v>
       </c>

--- a/Resources/ML_Accuracy_Table.xlsx
+++ b/Resources/ML_Accuracy_Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/derekdenning/Desktop/GW_Class/Project_3_Conda_Activate/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12BE7685-4D2F-0C49-BBC4-680B2593E96C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17ABB65F-1CB2-5C4A-ABF5-D63EE85B41FF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="960" windowWidth="26780" windowHeight="16540" xr2:uid="{2B06B0C3-47BA-7743-AEFB-13E7FFE2F2B0}"/>
+    <workbookView xWindow="40" yWindow="1460" windowWidth="26780" windowHeight="16540" xr2:uid="{2B06B0C3-47BA-7743-AEFB-13E7FFE2F2B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="85">
   <si>
     <t>Country</t>
   </si>
@@ -283,6 +283,9 @@
   </si>
   <si>
     <t>10 epochs</t>
+  </si>
+  <si>
+    <t>100 epochs</t>
   </si>
 </sst>
 </file>
@@ -662,8 +665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{406186E0-735E-7D4A-87DB-707EFD939807}">
   <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1157,26 +1160,74 @@
       <c r="A41" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="B41" s="4">
+        <v>314</v>
+      </c>
+      <c r="C41" s="4">
+        <v>99.2</v>
+      </c>
+      <c r="D41" s="4">
+        <v>91.1</v>
+      </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="B42" s="4">
+        <v>208</v>
+      </c>
+      <c r="C42" s="4">
+        <v>100</v>
+      </c>
+      <c r="D42" s="4">
+        <v>80.8</v>
+      </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="B43" s="4">
+        <v>297</v>
+      </c>
+      <c r="C43" s="4">
+        <v>100</v>
+      </c>
+      <c r="D43" s="4">
+        <v>85.3</v>
+      </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="B44" s="4">
+        <v>527</v>
+      </c>
+      <c r="C44" s="4">
+        <v>100</v>
+      </c>
+      <c r="D44" s="4">
+        <v>93.2</v>
+      </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B45" s="4">
+        <v>5092</v>
+      </c>
+      <c r="C45" s="4">
+        <v>93.6</v>
+      </c>
+      <c r="D45" s="4">
+        <v>86.6</v>
+      </c>
+      <c r="E45" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="1" t="s">
@@ -1193,152 +1244,380 @@
         <v>77</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="B49" s="4">
+        <v>1680</v>
+      </c>
+      <c r="C49" s="4">
+        <v>99.1</v>
+      </c>
+      <c r="D49" s="4">
+        <v>88.8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
+      <c r="B50" s="4">
+        <v>324</v>
+      </c>
+      <c r="C50" s="4">
+        <v>100</v>
+      </c>
+      <c r="D50" s="4">
+        <v>93.8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
+      <c r="B51" s="4">
+        <v>210</v>
+      </c>
+      <c r="C51" s="4">
+        <v>100</v>
+      </c>
+      <c r="D51" s="4">
+        <v>88.7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
+      <c r="B52" s="4">
+        <v>575</v>
+      </c>
+      <c r="C52" s="4">
+        <v>99.1</v>
+      </c>
+      <c r="D52" s="4">
+        <v>91.7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="54" spans="1:1">
+      <c r="B53" s="4">
+        <v>1795</v>
+      </c>
+      <c r="C53" s="4">
+        <v>98.7</v>
+      </c>
+      <c r="D53" s="4">
+        <v>89.3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="55" spans="1:1">
+      <c r="B54" s="4">
+        <v>386</v>
+      </c>
+      <c r="C54" s="4">
+        <v>95.9</v>
+      </c>
+      <c r="D54" s="4">
+        <v>84.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="56" spans="1:1">
+      <c r="B55" s="4">
+        <v>3156</v>
+      </c>
+      <c r="C55" s="4">
+        <v>96.2</v>
+      </c>
+      <c r="D55" s="4">
+        <v>83.4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="57" spans="1:1">
+      <c r="B56" s="4">
+        <v>857</v>
+      </c>
+      <c r="C56" s="4">
+        <v>97.4</v>
+      </c>
+      <c r="D56" s="4">
+        <v>81.900000000000006</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="58" spans="1:1">
+      <c r="B57" s="4">
+        <v>190</v>
+      </c>
+      <c r="C57" s="4">
+        <v>100</v>
+      </c>
+      <c r="D57" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="59" spans="1:1">
+      <c r="B58" s="4">
+        <v>697</v>
+      </c>
+      <c r="C58" s="4">
+        <v>98.7</v>
+      </c>
+      <c r="D58" s="4">
+        <v>88.6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="60" spans="1:1">
+      <c r="B59" s="4">
+        <v>1497</v>
+      </c>
+      <c r="C59" s="4">
+        <v>99.6</v>
+      </c>
+      <c r="D59" s="4">
+        <v>92.3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:5">
       <c r="A61" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="62" spans="1:1">
+      <c r="B61" s="4">
+        <v>462</v>
+      </c>
+      <c r="C61" s="4">
+        <v>100</v>
+      </c>
+      <c r="D61" s="4">
+        <v>95.7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="63" spans="1:1">
+      <c r="B62" s="4">
+        <v>582</v>
+      </c>
+      <c r="C62" s="4">
+        <v>95.4</v>
+      </c>
+      <c r="D62" s="4">
+        <v>91.1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="64" spans="1:1">
+      <c r="B63" s="4">
+        <v>10101</v>
+      </c>
+      <c r="C63" s="4">
+        <v>93.1</v>
+      </c>
+      <c r="D63" s="4">
+        <v>88.1</v>
+      </c>
+      <c r="E63" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="65" spans="1:1">
+      <c r="B64" s="4">
+        <v>888</v>
+      </c>
+      <c r="C64" s="4">
+        <v>100</v>
+      </c>
+      <c r="D64" s="4">
+        <v>87.8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="66" spans="1:1">
+      <c r="B65" s="4">
+        <v>413</v>
+      </c>
+      <c r="C65" s="4">
+        <v>99.7</v>
+      </c>
+      <c r="D65" s="4">
+        <v>84.6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="67" spans="1:1">
+      <c r="B66" s="4">
+        <v>165</v>
+      </c>
+      <c r="C66" s="4">
+        <v>99.2</v>
+      </c>
+      <c r="D66" s="4">
+        <v>78.599999999999994</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="69" spans="1:1">
+      <c r="B68" s="4">
+        <v>210</v>
+      </c>
+      <c r="C68" s="4">
+        <v>100</v>
+      </c>
+      <c r="D68" s="4">
+        <v>92.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="70" spans="1:1">
+      <c r="B69" s="4">
+        <v>2274</v>
+      </c>
+      <c r="C69" s="4">
+        <v>98.8</v>
+      </c>
+      <c r="D69" s="4">
+        <v>92.1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="71" spans="1:1">
+      <c r="B70" s="4">
+        <v>546</v>
+      </c>
+      <c r="C70" s="4">
+        <v>98.8</v>
+      </c>
+      <c r="D70" s="4">
+        <v>81.8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="73" spans="1:1">
+      <c r="B72" s="4">
+        <v>1420</v>
+      </c>
+      <c r="C72" s="4">
+        <v>99.4</v>
+      </c>
+      <c r="D72" s="4">
+        <v>91.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="74" spans="1:1">
+      <c r="B73" s="4">
+        <v>1067</v>
+      </c>
+      <c r="C73" s="4">
+        <v>99.1</v>
+      </c>
+      <c r="D73" s="4">
+        <v>87.6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="75" spans="1:1">
+      <c r="B74" s="4">
+        <v>2541</v>
+      </c>
+      <c r="C74" s="4">
+        <v>98.9</v>
+      </c>
+      <c r="D74" s="4">
+        <v>89.2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="77" spans="1:1">
+      <c r="B76" s="4">
+        <v>1600</v>
+      </c>
+      <c r="C76" s="4">
+        <v>97.6</v>
+      </c>
+      <c r="D76" s="4">
+        <v>88.2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="78" spans="1:1">
+      <c r="B77" s="4">
+        <v>1151</v>
+      </c>
+      <c r="C77" s="4">
+        <v>97.6</v>
+      </c>
+      <c r="D77" s="4">
+        <v>91.3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
         <v>67</v>
       </c>

--- a/Resources/ML_Accuracy_Table.xlsx
+++ b/Resources/ML_Accuracy_Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/derekdenning/Desktop/GW_Class/Project_3_Conda_Activate/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17ABB65F-1CB2-5C4A-ABF5-D63EE85B41FF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6CECDDC-F0BD-2F4B-856C-06CEDE96DD16}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40" yWindow="1460" windowWidth="26780" windowHeight="16540" xr2:uid="{2B06B0C3-47BA-7743-AEFB-13E7FFE2F2B0}"/>
   </bookViews>
@@ -665,8 +665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{406186E0-735E-7D4A-87DB-707EFD939807}">
   <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/Resources/ML_Accuracy_Table.xlsx
+++ b/Resources/ML_Accuracy_Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/derekdenning/Desktop/GW_Class/Project_3_Conda_Activate/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6CECDDC-F0BD-2F4B-856C-06CEDE96DD16}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B6D418-BF69-B449-BF24-E9C3CCA97313}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="1460" windowWidth="26780" windowHeight="16540" xr2:uid="{2B06B0C3-47BA-7743-AEFB-13E7FFE2F2B0}"/>
+    <workbookView xWindow="40" yWindow="1460" windowWidth="20060" windowHeight="16540" xr2:uid="{2B06B0C3-47BA-7743-AEFB-13E7FFE2F2B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="84">
   <si>
     <t>Country</t>
   </si>
@@ -163,9 +163,6 @@
   </si>
   <si>
     <t>INDONESIA</t>
-  </si>
-  <si>
-    <t>UNITED STATES OF AMERICA</t>
   </si>
   <si>
     <t>HONG KONG</t>
@@ -663,10 +660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{406186E0-735E-7D4A-87DB-707EFD939807}">
-  <dimension ref="A1:E78"/>
+  <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -682,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -707,7 +704,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
+      </c>
+      <c r="B3" s="4">
+        <v>89</v>
+      </c>
+      <c r="C3" s="4">
+        <v>100</v>
+      </c>
+      <c r="D3" s="4">
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -726,7 +732,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
+      </c>
+      <c r="B5" s="4">
+        <v>115</v>
+      </c>
+      <c r="C5" s="4">
+        <v>100</v>
+      </c>
+      <c r="D5" s="4">
+        <v>96.6</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -745,7 +760,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" s="4">
         <v>335</v>
@@ -759,12 +774,30 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="B8" s="4">
+        <v>162</v>
+      </c>
+      <c r="C8" s="4">
+        <v>100</v>
+      </c>
+      <c r="D8" s="4">
+        <v>87.8</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
+      </c>
+      <c r="B9" s="4">
+        <v>101</v>
+      </c>
+      <c r="C9" s="4">
+        <v>100</v>
+      </c>
+      <c r="D9" s="4">
+        <v>96.2</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -783,7 +816,16 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
+      </c>
+      <c r="B11" s="4">
+        <v>306</v>
+      </c>
+      <c r="C11" s="4">
+        <v>99.6</v>
+      </c>
+      <c r="D11" s="4">
+        <v>92.2</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -800,12 +842,12 @@
         <v>91</v>
       </c>
       <c r="E12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B13" s="4">
         <v>293</v>
@@ -831,7 +873,7 @@
         <v>95.6</v>
       </c>
       <c r="E14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -850,22 +892,49 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
+      </c>
+      <c r="B16" s="4">
+        <v>161</v>
+      </c>
+      <c r="C16" s="4">
+        <v>100</v>
+      </c>
+      <c r="D16" s="4">
+        <v>87.8</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
+      </c>
+      <c r="B17" s="4">
+        <v>109</v>
+      </c>
+      <c r="C17" s="4">
+        <v>100</v>
+      </c>
+      <c r="D17" s="4">
+        <v>92.9</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
+      </c>
+      <c r="B18" s="4">
+        <v>122</v>
+      </c>
+      <c r="C18" s="4">
+        <v>100</v>
+      </c>
+      <c r="D18" s="4">
+        <v>77.400000000000006</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B19" s="4">
         <v>156</v>
@@ -921,7 +990,16 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
+      </c>
+      <c r="B23" s="4">
+        <v>133</v>
+      </c>
+      <c r="C23" s="4">
+        <v>100</v>
+      </c>
+      <c r="D23" s="4">
+        <v>91.2</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -954,7 +1032,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B26" s="4">
         <v>194</v>
@@ -968,7 +1046,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B27" s="4">
         <v>336</v>
@@ -982,7 +1060,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B28" s="4">
         <v>154</v>
@@ -996,7 +1074,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B29" s="4">
         <v>37</v>
@@ -1010,7 +1088,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B30" s="4">
         <v>165</v>
@@ -1024,7 +1102,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B31" s="4">
         <v>283</v>
@@ -1038,7 +1116,16 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
+      </c>
+      <c r="B32" s="4">
+        <v>179</v>
+      </c>
+      <c r="C32" s="4">
+        <v>99.3</v>
+      </c>
+      <c r="D32" s="4">
+        <v>84.4</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1055,7 +1142,7 @@
         <v>95.6</v>
       </c>
       <c r="E33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1130,7 +1217,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B39" s="4">
         <v>237</v>
@@ -1158,7 +1245,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B41" s="4">
         <v>314</v>
@@ -1172,7 +1259,7 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B42" s="4">
         <v>208</v>
@@ -1186,7 +1273,7 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B43" s="4">
         <v>297</v>
@@ -1226,22 +1313,49 @@
         <v>86.6</v>
       </c>
       <c r="E45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
+      </c>
+      <c r="B46" s="4">
+        <v>90</v>
+      </c>
+      <c r="C46" s="4">
+        <v>100</v>
+      </c>
+      <c r="D46" s="4">
+        <v>78.3</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
+      </c>
+      <c r="B47" s="4">
+        <v>139</v>
+      </c>
+      <c r="C47" s="4">
+        <v>100</v>
+      </c>
+      <c r="D47" s="4">
+        <v>88.6</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+      <c r="B48" s="4">
+        <v>107</v>
+      </c>
+      <c r="C48" s="4">
+        <v>100</v>
+      </c>
+      <c r="D48" s="4">
+        <v>81.5</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1260,7 +1374,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B50" s="4">
         <v>324</v>
@@ -1274,7 +1388,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B51" s="4">
         <v>210</v>
@@ -1358,7 +1472,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B57" s="4">
         <v>190</v>
@@ -1400,7 +1514,16 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="B60" s="4">
+        <v>148</v>
+      </c>
+      <c r="C60" s="4">
+        <v>100</v>
+      </c>
+      <c r="D60" s="4">
+        <v>97.3</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1445,7 +1568,7 @@
         <v>88.1</v>
       </c>
       <c r="E63" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1478,7 +1601,7 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B66" s="4">
         <v>165</v>
@@ -1492,12 +1615,21 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
+      </c>
+      <c r="B67" s="4">
+        <v>143</v>
+      </c>
+      <c r="C67" s="4">
+        <v>100</v>
+      </c>
+      <c r="D67" s="4">
+        <v>91.7</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B68" s="4">
         <v>210</v>
@@ -1539,7 +1671,16 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
+      </c>
+      <c r="B71" s="4">
+        <v>158</v>
+      </c>
+      <c r="C71" s="4">
+        <v>100</v>
+      </c>
+      <c r="D71" s="4">
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1586,40 +1727,44 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>44</v>
+        <v>14</v>
+      </c>
+      <c r="B75" s="4">
+        <v>1600</v>
+      </c>
+      <c r="C75" s="4">
+        <v>97.6</v>
+      </c>
+      <c r="D75" s="4">
+        <v>88.2</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B76" s="4">
-        <v>1600</v>
+        <v>1151</v>
       </c>
       <c r="C76" s="4">
         <v>97.6</v>
       </c>
       <c r="D76" s="4">
-        <v>88.2</v>
+        <v>91.3</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="B77" s="4">
-        <v>1151</v>
+        <v>178</v>
       </c>
       <c r="C77" s="4">
-        <v>97.6</v>
+        <v>91</v>
       </c>
       <c r="D77" s="4">
-        <v>91.3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="1" t="s">
-        <v>67</v>
+        <v>82.2</v>
       </c>
     </row>
   </sheetData>
